--- a/alpha_team/DB設計書.xlsx
+++ b/alpha_team/DB設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="25600" windowHeight="20480" tabRatio="500"/>
+    <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="20040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
   <si>
     <t>テーブル概要：ユーザ管理テーブル</t>
     <rPh sb="4" eb="6">
@@ -389,6 +389,21 @@
   </si>
   <si>
     <t>2013_1225_163051_hoge.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>explanation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポットの説明</t>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -651,9 +666,6 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -678,16 +690,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1023,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1041,214 +1056,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="19" thickBot="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" ht="19" thickBot="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="19" thickBot="1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <v>2304152</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="19" thickBot="1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="19" thickBot="1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G15" t="s">
@@ -1256,152 +1271,146 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="10" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="10" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G19" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19" thickBot="1">
-      <c r="A19" s="11" t="s">
+    <row r="20" spans="1:7" ht="19" thickBot="1">
+      <c r="A20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G20" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="19" thickBot="1">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7" ht="19" thickBot="1">
+      <c r="A23" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="19" thickBot="1">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" ht="19" thickBot="1">
+      <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="7" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
@@ -1410,205 +1419,226 @@
       <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="10" t="s">
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G26" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="9" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="10" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G27" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="9" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="10" t="s">
+      <c r="E28" s="1"/>
+      <c r="F28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G28" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="9" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="10" t="s">
+      <c r="E29" s="1"/>
+      <c r="F29" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G29" s="16">
         <v>41621.663425925923</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19" thickBot="1">
-      <c r="A29" s="11" t="s">
+    <row r="30" spans="1:7" ht="19" thickBot="1">
+      <c r="A30" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13" t="s">
+      <c r="E30" s="11"/>
+      <c r="F30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G30" s="16">
         <v>41626.663425925923</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" ht="19" thickBot="1">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" ht="19" thickBot="1">
+      <c r="A33" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" ht="19" thickBot="1">
-      <c r="A33" s="4" t="s">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7" ht="19" thickBot="1">
+      <c r="A34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G34" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="7" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="10" t="s">
+      <c r="E35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G36" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19" thickBot="1">
-      <c r="A36" s="11" t="s">
+    <row r="37" spans="1:7" ht="19" thickBot="1">
+      <c r="A37" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13" t="s">
+      <c r="E37" s="11"/>
+      <c r="F37" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G37" s="15" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A32:G32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
